--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2784250.646091502</v>
+        <v>-2787178.664157874</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663202</v>
+        <v>116.8405921356979</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.396723986041692</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>15.40229248514512</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>325.5823753787681</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>95.92525437572847</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.62007141147429</v>
+        <v>325.5823753787703</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>47.07051318005128</v>
       </c>
       <c r="S5" t="n">
-        <v>147.8888157490757</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.3524786953564</v>
       </c>
       <c r="U5" t="n">
         <v>251.1310396195436</v>
       </c>
       <c r="V5" t="n">
-        <v>193.8393590905818</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>325.5823753787703</v>
       </c>
       <c r="X5" t="n">
-        <v>325.5823753787681</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>56.56171562291499</v>
       </c>
       <c r="S6" t="n">
-        <v>34.79273139415851</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.379249217185</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>137.9917135911114</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>196.4355796394532</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>196.4355796394557</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>145.7818465999152</v>
+        <v>265.6962952122075</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.34312009993552</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>88.2913670860885</v>
       </c>
     </row>
     <row r="10">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>77.84303991612717</v>
+        <v>246.4412936084438</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703266</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>59.66990246485226</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,19 +2084,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>126.464366564012</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652576</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352484</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541843</v>
+        <v>116.010065354184</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652568</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.120802835248</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.46338433294369</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C2" t="n">
-        <v>21.46338433294369</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46338433294369</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E2" t="n">
-        <v>21.46338433294369</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F2" t="n">
-        <v>21.46338433294369</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G2" t="n">
-        <v>21.46338433294369</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>21.46338433294369</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123835</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985591</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652808</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823989</v>
+        <v>511.8624171433441</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659138</v>
+        <v>511.8624171433441</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659138</v>
+        <v>511.8624171433441</v>
       </c>
       <c r="V2" t="n">
-        <v>210.8831693494288</v>
+        <v>322.4426321268592</v>
       </c>
       <c r="W2" t="n">
-        <v>210.8831693494288</v>
+        <v>322.4426321268592</v>
       </c>
       <c r="X2" t="n">
-        <v>210.8831693494288</v>
+        <v>133.0228471103742</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.8831693494288</v>
+        <v>133.0228471103742</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140247</v>
@@ -4425,34 +4425,34 @@
         <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652808</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487957</v>
+        <v>409.3994882033918</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487957</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323106</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="W3" t="n">
-        <v>181.8429936158256</v>
+        <v>30.55991817042189</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158256</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158256</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230187</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170739</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396366</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.73963765978198</v>
+        <v>458.7573733598069</v>
       </c>
       <c r="C5" t="n">
-        <v>45.73963765978198</v>
+        <v>458.7573733598069</v>
       </c>
       <c r="D5" t="n">
-        <v>45.73963765978198</v>
+        <v>458.7573733598069</v>
       </c>
       <c r="E5" t="n">
-        <v>45.73963765978198</v>
+        <v>361.8631770206872</v>
       </c>
       <c r="F5" t="n">
-        <v>38.79413691057851</v>
+        <v>354.9176762714837</v>
       </c>
       <c r="G5" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="H5" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="I5" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="J5" t="n">
-        <v>72.22219744230381</v>
+        <v>72.22219744230506</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1659814074755</v>
+        <v>192.1659814074778</v>
       </c>
       <c r="L5" t="n">
-        <v>377.8686134290995</v>
+        <v>377.8686134291032</v>
       </c>
       <c r="M5" t="n">
-        <v>616.168010063778</v>
+        <v>616.168010063783</v>
       </c>
       <c r="N5" t="n">
-        <v>862.9371484491874</v>
+        <v>862.9371484491937</v>
       </c>
       <c r="O5" t="n">
-        <v>1082.618987030158</v>
+        <v>1082.618987030165</v>
       </c>
       <c r="P5" t="n">
-        <v>1235.611352881098</v>
+        <v>1235.611352881106</v>
       </c>
       <c r="Q5" t="n">
-        <v>1302.329501515072</v>
+        <v>1302.329501515081</v>
       </c>
       <c r="R5" t="n">
-        <v>1302.329501515072</v>
+        <v>1254.783528605938</v>
       </c>
       <c r="S5" t="n">
-        <v>1152.946859344289</v>
+        <v>1254.783528605938</v>
       </c>
       <c r="T5" t="n">
-        <v>1152.946859344289</v>
+        <v>1041.296176388407</v>
       </c>
       <c r="U5" t="n">
-        <v>899.2791425568711</v>
+        <v>787.628459600989</v>
       </c>
       <c r="V5" t="n">
-        <v>703.481810142142</v>
+        <v>787.628459600989</v>
       </c>
       <c r="W5" t="n">
-        <v>703.481810142142</v>
+        <v>458.7573733598069</v>
       </c>
       <c r="X5" t="n">
-        <v>374.6107239009619</v>
+        <v>458.7573733598069</v>
       </c>
       <c r="Y5" t="n">
-        <v>374.6107239009619</v>
+        <v>458.7573733598069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="C6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="D6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="E6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="F6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="G6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="H6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="I6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="J6" t="n">
-        <v>34.73061851331816</v>
+        <v>34.73061851331867</v>
       </c>
       <c r="K6" t="n">
-        <v>127.7278310874246</v>
+        <v>127.7278310874257</v>
       </c>
       <c r="L6" t="n">
-        <v>299.0966011173144</v>
+        <v>299.0966011173163</v>
       </c>
       <c r="M6" t="n">
-        <v>518.4327409717696</v>
+        <v>518.4327409717725</v>
       </c>
       <c r="N6" t="n">
-        <v>757.9827007088661</v>
+        <v>757.98270070887</v>
       </c>
       <c r="O6" t="n">
-        <v>954.9043187862537</v>
+        <v>954.9043187862585</v>
       </c>
       <c r="P6" t="n">
-        <v>1093.618211966599</v>
+        <v>1093.618211966604</v>
       </c>
       <c r="Q6" t="n">
-        <v>1136.425579636633</v>
+        <v>1136.425579636639</v>
       </c>
       <c r="R6" t="n">
-        <v>1136.425579636633</v>
+        <v>1079.292533552886</v>
       </c>
       <c r="S6" t="n">
-        <v>1101.28140651122</v>
+        <v>1079.292533552886</v>
       </c>
       <c r="T6" t="n">
-        <v>904.9387305342657</v>
+        <v>882.9498575759317</v>
       </c>
       <c r="U6" t="n">
-        <v>676.8104972325309</v>
+        <v>654.8216242741969</v>
       </c>
       <c r="V6" t="n">
-        <v>441.6583890007882</v>
+        <v>419.6695160424542</v>
       </c>
       <c r="W6" t="n">
-        <v>441.6583890007882</v>
+        <v>165.4321593142525</v>
       </c>
       <c r="X6" t="n">
-        <v>233.8068887952554</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="Y6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="C7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="D7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="E7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="F7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="G7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="H7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="I7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="J7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="K7" t="n">
-        <v>36.73297237734441</v>
+        <v>36.73297237734492</v>
       </c>
       <c r="L7" t="n">
-        <v>80.31366029109907</v>
+        <v>80.31366029110004</v>
       </c>
       <c r="M7" t="n">
-        <v>129.5216682469965</v>
+        <v>129.5216682469979</v>
       </c>
       <c r="N7" t="n">
-        <v>185.4171456649565</v>
+        <v>185.4171456649584</v>
       </c>
       <c r="O7" t="n">
-        <v>216.7325770880041</v>
+        <v>216.7325770880064</v>
       </c>
       <c r="P7" t="n">
-        <v>224.4663674438906</v>
+        <v>224.4663674438932</v>
       </c>
       <c r="Q7" t="n">
-        <v>224.4663674438906</v>
+        <v>224.4663674438932</v>
       </c>
       <c r="R7" t="n">
-        <v>224.4663674438906</v>
+        <v>224.4663674438932</v>
       </c>
       <c r="S7" t="n">
-        <v>224.4663674438906</v>
+        <v>224.4663674438932</v>
       </c>
       <c r="T7" t="n">
-        <v>224.4663674438906</v>
+        <v>224.4663674438932</v>
       </c>
       <c r="U7" t="n">
-        <v>26.04659003030145</v>
+        <v>224.4663674438932</v>
       </c>
       <c r="V7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="W7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="X7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1061.515787985915</v>
+        <v>1171.944675321236</v>
       </c>
       <c r="C8" t="n">
-        <v>692.5532710455036</v>
+        <v>1171.944675321236</v>
       </c>
       <c r="D8" t="n">
-        <v>692.5532710455036</v>
+        <v>813.6789767144858</v>
       </c>
       <c r="E8" t="n">
-        <v>692.5532710455036</v>
+        <v>813.6789767144858</v>
       </c>
       <c r="F8" t="n">
-        <v>685.6077702963001</v>
+        <v>806.7334759652823</v>
       </c>
       <c r="G8" t="n">
-        <v>269.5767249997074</v>
+        <v>390.7024306686895</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711882</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305298</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>1451.655119961727</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W8" t="n">
-        <v>1451.655119961727</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="X8" t="n">
-        <v>1451.655119961727</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="Y8" t="n">
-        <v>1061.515787985915</v>
+        <v>1171.944675321236</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>180.2451903229772</v>
+        <v>217.8222258192201</v>
       </c>
       <c r="C9" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D9" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E9" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F9" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972668</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474386</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948362</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081626</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498832</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W9" t="n">
-        <v>683.0722621216817</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X9" t="n">
-        <v>475.2207619161488</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y9" t="n">
-        <v>267.4604631511949</v>
+        <v>386.0375628392881</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>411.124850812683</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>411.124850812683</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>411.124850812683</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>121.9985297867065</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>121.9985297867065</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809315</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5042,16 +5042,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5179,13 +5179,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5416,16 +5416,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,10 +5835,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,34 +5999,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N25" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P25" t="n">
         <v>2496.057455973196</v>
@@ -6181,7 +6181,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
         <v>1483.798285518751</v>
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,34 +6236,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6607,22 +6607,22 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311325</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380729</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7561,31 +7561,31 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7628,10 +7628,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971604</v>
+        <v>265.8932495277826</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>192.654276793178</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038147</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>182.2055135121489</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22729,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>51.88638342057502</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788574</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.70534424526943</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>92.12028678808279</v>
       </c>
     </row>
     <row r="23">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>152821.0045718466</v>
+        <v>152821.0045718489</v>
       </c>
       <c r="D3" t="n">
-        <v>226894.9196888123</v>
+        <v>226894.919688809</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854474</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>35531.3994686613</v>
+        <v>35531.39946866188</v>
       </c>
       <c r="L3" t="n">
-        <v>54802.44754579385</v>
+        <v>54802.44754579302</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515976</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="O3" t="n">
-        <v>5.86170805381071e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172534.4359623088</v>
+        <v>172534.4359623089</v>
       </c>
       <c r="C4" t="n">
-        <v>237903.8570859609</v>
+        <v>237903.8570859603</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26430,10 +26430,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>24037.44323498544</v>
@@ -26442,22 +26442,22 @@
         <v>24037.44323498544</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="L4" t="n">
         <v>24037.44323498544</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.4432349855</v>
+        <v>24037.44323498537</v>
       </c>
       <c r="N4" t="n">
+        <v>24037.44323498545</v>
+      </c>
+      <c r="O4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="P4" t="n">
         <v>24037.44323498543</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24037.44323498545</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24037.44323498545</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>67970.4360366555</v>
+        <v>67970.43603665566</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-820877.1388947681</v>
+        <v>-821341.4356867926</v>
       </c>
       <c r="C6" t="n">
-        <v>-458695.2976944629</v>
+        <v>-458695.2976944649</v>
       </c>
       <c r="D6" t="n">
-        <v>-486296.991633582</v>
+        <v>-486296.9916335789</v>
       </c>
       <c r="E6" t="n">
-        <v>-718612.3213700631</v>
+        <v>-718647.0592954999</v>
       </c>
       <c r="F6" t="n">
-        <v>-117169.1137957991</v>
+        <v>-117203.8517212348</v>
       </c>
       <c r="G6" t="n">
-        <v>-117169.1137957991</v>
+        <v>-117203.8517212348</v>
       </c>
       <c r="H6" t="n">
-        <v>-117169.113795799</v>
+        <v>-117203.8517212348</v>
       </c>
       <c r="I6" t="n">
         <v>-146629.2770825326</v>
       </c>
       <c r="J6" t="n">
-        <v>-176266.5038174456</v>
+        <v>-176266.5038174455</v>
       </c>
       <c r="K6" t="n">
-        <v>-162732.9585575621</v>
+        <v>-162732.9585575627</v>
       </c>
       <c r="L6" t="n">
-        <v>-182004.0066346947</v>
+        <v>-182004.0066346939</v>
       </c>
       <c r="M6" t="n">
-        <v>-284347.9396404984</v>
+        <v>-284347.9396404988</v>
       </c>
       <c r="N6" t="n">
-        <v>-146629.2770825326</v>
+        <v>-146629.2770825327</v>
       </c>
       <c r="O6" t="n">
         <v>-127201.5590889009</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>667.3131932856147</v>
+        <v>667.3131932856164</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>325.5823753787681</v>
+        <v>325.5823753787703</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,28 +26808,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>7.327135067263388e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>118.8432523727098</v>
+        <v>118.8432523727116</v>
       </c>
       <c r="D3" t="n">
-        <v>186.3974712520704</v>
+        <v>186.3974712520677</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>138.0567882124479</v>
+        <v>138.0567882124502</v>
       </c>
       <c r="D4" t="n">
-        <v>216.5325813473962</v>
+        <v>216.5325813473929</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>138.0567882124479</v>
+        <v>138.0567882124502</v>
       </c>
       <c r="L4" t="n">
-        <v>216.5325813473962</v>
+        <v>216.5325813473929</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>138.0567882124479</v>
+        <v>138.0567882124502</v>
       </c>
       <c r="L4" t="n">
-        <v>216.5325813473962</v>
+        <v>216.5325813473929</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>220.44355643688</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.074593133933</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988656</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.36064647377259</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27479,7 +27479,7 @@
         <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846314</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681025</v>
+        <v>7.884010625681128</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377083</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310506</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945994</v>
+        <v>64.16939599459951</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.3706927183324</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,19 +27549,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825412</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,34 +27576,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515972</v>
+        <v>16.47009429716257</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>171.5037272356653</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>200.251259903253</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.15146628471246</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>286.0051156965333</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>87.03769603270401</v>
       </c>
       <c r="H5" t="n">
-        <v>312.0009478816514</v>
+        <v>312.0009478816513</v>
       </c>
       <c r="I5" t="n">
-        <v>107.0524046090243</v>
+        <v>107.0524046090241</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>47.07051318005171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>147.8888157490755</v>
       </c>
       <c r="T5" t="n">
-        <v>211.3524786953564</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>133.9128993795531</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>23.65859333864273</v>
       </c>
       <c r="X5" t="n">
-        <v>44.14872529970091</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27710,10 +27710,10 @@
         <v>135.9081642568982</v>
       </c>
       <c r="H6" t="n">
-        <v>98.37295695711039</v>
+        <v>98.37295695711035</v>
       </c>
       <c r="I6" t="n">
-        <v>50.10343125196155</v>
+        <v>50.10343125196142</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.56171562291522</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>110.2293890156739</v>
+        <v>145.0221204098323</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>67.78127161236606</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>151.5282822937784</v>
       </c>
       <c r="I7" t="n">
-        <v>119.2624086421958</v>
+        <v>119.2624086421957</v>
       </c>
       <c r="J7" t="n">
-        <v>41.91845907575308</v>
+        <v>41.91845907575286</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.74070944331802</v>
+        <v>50.74070944331777</v>
       </c>
       <c r="R7" t="n">
-        <v>123.1863249183064</v>
+        <v>123.1863249183062</v>
       </c>
       <c r="S7" t="n">
-        <v>203.0454604709309</v>
+        <v>203.0454604709308</v>
       </c>
       <c r="T7" t="n">
         <v>222.8039959718186</v>
       </c>
       <c r="U7" t="n">
-        <v>89.81781235376368</v>
+        <v>286.2533919932169</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>55.70206368437235</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>158.5449581562678</v>
+        <v>38.63050954397556</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.19006354993182</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>117.3913286912159</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>208.6799584204638</v>
+        <v>40.0817047281472</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.56674739427399e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
   </sheetData>
@@ -31039,16 +31039,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.472093452864</v>
@@ -31057,28 +31057,28 @@
         <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
         <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061602</v>
@@ -31124,43 +31124,43 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31215,7 +31215,7 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.682666103660761</v>
+        <v>2.682666103660767</v>
       </c>
       <c r="H5" t="n">
-        <v>27.47385423411577</v>
+        <v>27.47385423411584</v>
       </c>
       <c r="I5" t="n">
-        <v>103.4234849613816</v>
+        <v>103.4234849613818</v>
       </c>
       <c r="J5" t="n">
-        <v>227.6879322155777</v>
+        <v>227.6879322155783</v>
       </c>
       <c r="K5" t="n">
-        <v>341.2451883835378</v>
+        <v>341.2451883835386</v>
       </c>
       <c r="L5" t="n">
-        <v>423.3448311534459</v>
+        <v>423.3448311534469</v>
       </c>
       <c r="M5" t="n">
-        <v>471.0526944744229</v>
+        <v>471.0526944744241</v>
       </c>
       <c r="N5" t="n">
-        <v>478.674819541449</v>
+        <v>478.6748195414503</v>
       </c>
       <c r="O5" t="n">
-        <v>451.9990584731723</v>
+        <v>451.9990584731735</v>
       </c>
       <c r="P5" t="n">
-        <v>385.7707390390473</v>
+        <v>385.7707390390482</v>
       </c>
       <c r="Q5" t="n">
-        <v>289.6977592016962</v>
+        <v>289.6977592016969</v>
       </c>
       <c r="R5" t="n">
-        <v>168.5150246340804</v>
+        <v>168.5150246340808</v>
       </c>
       <c r="S5" t="n">
-        <v>61.13125383716964</v>
+        <v>61.1312538371698</v>
       </c>
       <c r="T5" t="n">
-        <v>11.74337086877498</v>
+        <v>11.74337086877502</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2146132882928608</v>
+        <v>0.2146132882928614</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.435352906312454</v>
+        <v>1.435352906312458</v>
       </c>
       <c r="H6" t="n">
-        <v>13.86248727938607</v>
+        <v>13.86248727938611</v>
       </c>
       <c r="I6" t="n">
-        <v>49.41894874803845</v>
+        <v>49.41894874803858</v>
       </c>
       <c r="J6" t="n">
-        <v>135.6093726091078</v>
+        <v>135.6093726091082</v>
       </c>
       <c r="K6" t="n">
-        <v>231.7780173320423</v>
+        <v>231.7780173320429</v>
       </c>
       <c r="L6" t="n">
-        <v>311.6541474868336</v>
+        <v>311.6541474868344</v>
       </c>
       <c r="M6" t="n">
-        <v>363.68569034066</v>
+        <v>363.6856903406609</v>
       </c>
       <c r="N6" t="n">
-        <v>373.3113683834308</v>
+        <v>373.3113683834318</v>
       </c>
       <c r="O6" t="n">
-        <v>341.5069697751391</v>
+        <v>341.50696977514</v>
       </c>
       <c r="P6" t="n">
-        <v>274.0894510308405</v>
+        <v>274.0894510308412</v>
       </c>
       <c r="Q6" t="n">
-        <v>183.2215394092881</v>
+        <v>183.2215394092885</v>
       </c>
       <c r="R6" t="n">
-        <v>89.11778834104874</v>
+        <v>89.11778834104896</v>
       </c>
       <c r="S6" t="n">
-        <v>26.66105069400544</v>
+        <v>26.66105069400551</v>
       </c>
       <c r="T6" t="n">
-        <v>5.785479477636601</v>
+        <v>5.785479477636616</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09443111225739835</v>
+        <v>0.09443111225739859</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.203351660023239</v>
+        <v>1.203351660023243</v>
       </c>
       <c r="H7" t="n">
-        <v>10.69889021366117</v>
+        <v>10.6988902136612</v>
       </c>
       <c r="I7" t="n">
-        <v>36.18806628506253</v>
+        <v>36.18806628506262</v>
       </c>
       <c r="J7" t="n">
-        <v>85.07696236364303</v>
+        <v>85.07696236364325</v>
       </c>
       <c r="K7" t="n">
-        <v>139.8075837736091</v>
+        <v>139.8075837736094</v>
       </c>
       <c r="L7" t="n">
-        <v>178.9055731638188</v>
+        <v>178.9055731638192</v>
       </c>
       <c r="M7" t="n">
-        <v>188.6308424889156</v>
+        <v>188.6308424889161</v>
       </c>
       <c r="N7" t="n">
-        <v>184.1456226651928</v>
+        <v>184.1456226651932</v>
       </c>
       <c r="O7" t="n">
-        <v>170.0882873640121</v>
+        <v>170.0882873640126</v>
       </c>
       <c r="P7" t="n">
-        <v>145.5399134995379</v>
+        <v>145.5399134995383</v>
       </c>
       <c r="Q7" t="n">
-        <v>100.7642921861278</v>
+        <v>100.7642921861281</v>
       </c>
       <c r="R7" t="n">
-        <v>54.1070664588631</v>
+        <v>54.10706645886324</v>
       </c>
       <c r="S7" t="n">
-        <v>20.97113756604136</v>
+        <v>20.97113756604141</v>
       </c>
       <c r="T7" t="n">
-        <v>5.141593456462931</v>
+        <v>5.141593456462944</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06563736327399496</v>
+        <v>0.06563736327399512</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32470,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33506,31 +33506,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33743,31 +33743,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N36" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34454,31 +34454,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
         <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
         <v>117.5966053606292</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646086</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>46.6420276888914</v>
+        <v>46.642027688892</v>
       </c>
       <c r="K5" t="n">
-        <v>121.1553373385572</v>
+        <v>121.1553373385581</v>
       </c>
       <c r="L5" t="n">
-        <v>187.5784161834586</v>
+        <v>187.5784161834597</v>
       </c>
       <c r="M5" t="n">
-        <v>240.7064612471501</v>
+        <v>240.7064612471513</v>
       </c>
       <c r="N5" t="n">
-        <v>249.2617559448581</v>
+        <v>249.2617559448594</v>
       </c>
       <c r="O5" t="n">
-        <v>221.9008470514856</v>
+        <v>221.9008470514867</v>
       </c>
       <c r="P5" t="n">
-        <v>154.5377432837777</v>
+        <v>154.5377432837787</v>
       </c>
       <c r="Q5" t="n">
-        <v>67.39206932724667</v>
+        <v>67.39206932724741</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8.771745942441129</v>
+        <v>8.77174594244147</v>
       </c>
       <c r="K6" t="n">
-        <v>93.93657835768326</v>
+        <v>93.93657835768386</v>
       </c>
       <c r="L6" t="n">
-        <v>173.0997677069594</v>
+        <v>173.0997677069602</v>
       </c>
       <c r="M6" t="n">
-        <v>221.5516564186416</v>
+        <v>221.5516564186426</v>
       </c>
       <c r="N6" t="n">
-        <v>241.9696563000975</v>
+        <v>241.9696563000985</v>
       </c>
       <c r="O6" t="n">
-        <v>198.9107253306946</v>
+        <v>198.9107253306955</v>
       </c>
       <c r="P6" t="n">
-        <v>140.1150436165103</v>
+        <v>140.115043616511</v>
       </c>
       <c r="Q6" t="n">
-        <v>43.23976532326654</v>
+        <v>43.23976532326699</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>10.7943256030737</v>
+        <v>10.79432560307404</v>
       </c>
       <c r="L7" t="n">
-        <v>44.02089688258047</v>
+        <v>44.02089688258093</v>
       </c>
       <c r="M7" t="n">
-        <v>49.70505854131054</v>
+        <v>49.70505854131102</v>
       </c>
       <c r="N7" t="n">
-        <v>56.46007819995958</v>
+        <v>56.46007819996004</v>
       </c>
       <c r="O7" t="n">
-        <v>31.63174891216934</v>
+        <v>31.63174891216977</v>
       </c>
       <c r="P7" t="n">
-        <v>7.811909450390317</v>
+        <v>7.811909450390687</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
